--- a/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
+++ b/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
@@ -652,6 +652,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,21 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1041,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1057,13 +1057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -1073,17 +1073,17 @@
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="27"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" thickBot="1">
       <c r="C3" s="36"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="12">
         <v>44256</v>
       </c>
@@ -1119,10 +1119,10 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="39">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1150,8 +1150,8 @@
       <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1177,10 +1177,10 @@
       <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="39">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1210,8 +1210,8 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1220,9 +1220,11 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1235,10 +1237,10 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="39">
+      <c r="A8" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1268,8 +1270,8 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1293,10 +1295,10 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="39">
+      <c r="A10" s="44">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1326,8 +1328,8 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1351,10 +1353,10 @@
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="39">
+      <c r="A12" s="44">
         <v>5</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1382,8 +1384,8 @@
       <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1407,10 +1409,10 @@
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="39">
+      <c r="A14" s="44">
         <v>6</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1440,8 +1442,8 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1465,10 +1467,10 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="39">
+      <c r="A16" s="44">
         <v>7</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1502,8 +1504,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1527,10 +1529,10 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="39">
+      <c r="A18" s="44">
         <v>8</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1558,8 +1560,8 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1583,10 +1585,10 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="39">
+      <c r="A20" s="44">
         <v>9</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1616,8 +1618,8 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1641,10 +1643,10 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="39">
+      <c r="A22" s="44">
         <v>10</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1674,8 +1676,8 @@
       <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="7" t="s">
         <v>1</v>
       </c>
@@ -1699,10 +1701,10 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="39">
+      <c r="A24" s="44">
         <v>11</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1726,8 +1728,8 @@
       <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
@@ -1751,10 +1753,10 @@
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="39">
+      <c r="A26" s="44">
         <v>12</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1778,8 +1780,8 @@
       <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
@@ -1803,10 +1805,10 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="39">
+      <c r="A28" s="44">
         <v>14</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1828,8 +1830,8 @@
       <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1851,10 +1853,10 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="39">
+      <c r="A30" s="44">
         <v>15</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
@@ -1876,8 +1878,8 @@
       <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1899,10 +1901,10 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="39">
+      <c r="A32" s="44">
         <v>16</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1924,8 +1926,8 @@
       <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="7" t="s">
         <v>1</v>
       </c>
@@ -1947,10 +1949,10 @@
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="39">
+      <c r="A34" s="44">
         <v>17</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1972,8 +1974,8 @@
       <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="7" t="s">
         <v>1</v>
       </c>
@@ -1995,10 +1997,10 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="39">
+      <c r="A36" s="44">
         <v>19</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="6" t="s">
         <v>0</v>
       </c>
@@ -2020,8 +2022,8 @@
       <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
@@ -2043,10 +2045,10 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="39">
+      <c r="A38" s="44">
         <v>20</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="6" t="s">
         <v>0</v>
       </c>
@@ -2068,8 +2070,8 @@
       <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2114,31 +2116,12 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="39">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
@@ -2147,12 +2130,31 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F38:P38 F36:P36 F34:P34 F32:P32 F30:P30 F28:P28 F26:P26 F24:P24 F20:P20 F18:P18 F16:P16 F14:P14 F12:P12 F10:P10 F8:P8 F6:P6 F22:P22 F4:P4">
     <cfRule type="beginsWith" dxfId="3" priority="2" operator="beginsWith" text="M">

--- a/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
+++ b/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
@@ -1039,9 +1039,9 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1220,12 +1220,14 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1280,11 +1282,13 @@
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>

--- a/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
+++ b/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>soll</t>
   </si>
@@ -652,21 +652,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +665,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,7 +1039,7 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
@@ -1057,13 +1057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -1073,17 +1073,17 @@
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="27"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" thickBot="1">
       <c r="C3" s="36"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="12">
         <v>44256</v>
       </c>
@@ -1119,10 +1119,10 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="44">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1150,8 +1150,8 @@
       <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1162,8 +1162,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="30">
-        <v>1</v>
+      <c r="F5" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1177,10 +1177,10 @@
       <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="44">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1210,8 +1210,8 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1239,10 +1239,10 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="44">
+      <c r="A8" s="39">
         <v>3</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1272,8 +1272,8 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1299,10 +1299,10 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="44">
+      <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1332,8 +1332,8 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1342,12 +1342,16 @@
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1357,10 +1361,10 @@
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="44">
+      <c r="A12" s="39">
         <v>5</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1388,8 +1392,8 @@
       <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1413,10 +1417,10 @@
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="44">
+      <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1446,8 +1450,8 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1471,10 +1475,10 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="44">
+      <c r="A16" s="39">
         <v>7</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1508,8 +1512,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="45"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1533,10 +1537,10 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="44">
+      <c r="A18" s="39">
         <v>8</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1564,8 +1568,8 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1589,10 +1593,10 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="44">
+      <c r="A20" s="39">
         <v>9</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1622,8 +1626,8 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1647,10 +1651,10 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="44">
+      <c r="A22" s="39">
         <v>10</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1680,8 +1684,8 @@
       <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="7" t="s">
         <v>1</v>
       </c>
@@ -1705,10 +1709,10 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="44">
+      <c r="A24" s="39">
         <v>11</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1732,8 +1736,8 @@
       <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="45"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
@@ -1757,10 +1761,10 @@
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="44">
+      <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1784,8 +1788,8 @@
       <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
@@ -1809,10 +1813,10 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="44">
+      <c r="A28" s="39">
         <v>14</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1834,8 +1838,8 @@
       <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1857,10 +1861,10 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="44">
+      <c r="A30" s="39">
         <v>15</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
@@ -1882,8 +1886,8 @@
       <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1905,10 +1909,10 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="44">
+      <c r="A32" s="39">
         <v>16</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1930,8 +1934,8 @@
       <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="7" t="s">
         <v>1</v>
       </c>
@@ -1953,10 +1957,10 @@
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="44">
+      <c r="A34" s="39">
         <v>17</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1978,8 +1982,8 @@
       <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2001,10 +2005,10 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="44">
+      <c r="A36" s="39">
         <v>19</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>0</v>
       </c>
@@ -2026,8 +2030,8 @@
       <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
@@ -2049,10 +2053,10 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="44">
+      <c r="A38" s="39">
         <v>20</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6" t="s">
         <v>0</v>
       </c>
@@ -2074,8 +2078,8 @@
       <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="45"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2120,12 +2124,31 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="39">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
@@ -2134,31 +2157,12 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <conditionalFormatting sqref="F38:P38 F36:P36 F34:P34 F32:P32 F30:P30 F28:P28 F26:P26 F24:P24 F20:P20 F18:P18 F16:P16 F14:P14 F12:P12 F10:P10 F8:P8 F6:P6 F22:P22 F4:P4">
     <cfRule type="beginsWith" dxfId="3" priority="2" operator="beginsWith" text="M">

--- a/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
+++ b/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>soll</t>
   </si>
@@ -652,6 +652,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,21 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1041,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1057,13 +1057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -1073,17 +1073,17 @@
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="27"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" thickBot="1">
       <c r="C3" s="36"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="12">
         <v>44256</v>
       </c>
@@ -1119,10 +1119,10 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="39">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1150,8 +1150,8 @@
       <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1177,10 +1177,10 @@
       <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="39">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1210,8 +1210,8 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1239,10 +1239,10 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="39">
+      <c r="A8" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1272,8 +1272,8 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1290,7 +1290,9 @@
         <v>1</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1299,10 +1301,10 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="39">
+      <c r="A10" s="44">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1332,8 +1334,8 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +1344,7 @@
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="8"/>
@@ -1352,7 +1354,9 @@
       <c r="I11" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1361,10 +1365,10 @@
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="39">
+      <c r="A12" s="44">
         <v>5</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1392,8 +1396,8 @@
       <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1417,10 +1421,10 @@
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="39">
+      <c r="A14" s="44">
         <v>6</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1450,8 +1454,8 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1460,14 +1464,18 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -1475,10 +1483,10 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="39">
+      <c r="A16" s="44">
         <v>7</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1512,8 +1520,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1537,10 +1545,10 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="39">
+      <c r="A18" s="44">
         <v>8</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1568,8 +1576,8 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1593,10 +1601,10 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="39">
+      <c r="A20" s="44">
         <v>9</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1626,8 +1634,8 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1651,10 +1659,10 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="39">
+      <c r="A22" s="44">
         <v>10</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1684,8 +1692,8 @@
       <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="7" t="s">
         <v>1</v>
       </c>
@@ -1709,10 +1717,10 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="39">
+      <c r="A24" s="44">
         <v>11</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1736,8 +1744,8 @@
       <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
@@ -1761,10 +1769,10 @@
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="39">
+      <c r="A26" s="44">
         <v>12</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1788,8 +1796,8 @@
       <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
@@ -1813,10 +1821,10 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="39">
+      <c r="A28" s="44">
         <v>14</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1838,8 +1846,8 @@
       <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1861,10 +1869,10 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="39">
+      <c r="A30" s="44">
         <v>15</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
@@ -1886,8 +1894,8 @@
       <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1909,10 +1917,10 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="39">
+      <c r="A32" s="44">
         <v>16</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1934,8 +1942,8 @@
       <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="7" t="s">
         <v>1</v>
       </c>
@@ -1957,10 +1965,10 @@
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="39">
+      <c r="A34" s="44">
         <v>17</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1982,8 +1990,8 @@
       <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2005,10 +2013,10 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="39">
+      <c r="A36" s="44">
         <v>19</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="6" t="s">
         <v>0</v>
       </c>
@@ -2030,8 +2038,8 @@
       <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
@@ -2053,10 +2061,10 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="39">
+      <c r="A38" s="44">
         <v>20</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="6" t="s">
         <v>0</v>
       </c>
@@ -2078,8 +2086,8 @@
       <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2124,31 +2132,12 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="39">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
@@ -2157,12 +2146,31 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F38:P38 F36:P36 F34:P34 F32:P32 F30:P30 F28:P28 F26:P26 F24:P24 F20:P20 F18:P18 F16:P16 F14:P14 F12:P12 F10:P10 F8:P8 F6:P6 F22:P22 F4:P4">
     <cfRule type="beginsWith" dxfId="3" priority="2" operator="beginsWith" text="M">

--- a/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
+++ b/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
@@ -1037,11 +1037,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1056,7 +1056,7 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:16" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:15" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="27"/>
       <c r="D2" s="39" t="s">
         <v>16</v>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="C3" s="36"/>
       <c r="D3" s="40"/>
       <c r="E3" s="42"/>
@@ -1103,22 +1103,19 @@
         <v>44264</v>
       </c>
       <c r="L3" s="12">
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="M3" s="12">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="N3" s="12">
-        <v>44274</v>
-      </c>
-      <c r="O3" s="12">
         <v>44277</v>
       </c>
-      <c r="P3" s="35">
+      <c r="O3" s="35">
         <v>44278</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" s="44">
         <v>1</v>
       </c>
@@ -1132,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E39" si="0">COUNTA(F4:P4)</f>
+        <f t="shared" ref="E4:E39" si="0">COUNTA(F4:O4)</f>
         <v>1</v>
       </c>
       <c r="F4" s="26" t="s">
@@ -1146,10 +1143,9 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="45"/>
       <c r="B5" s="47"/>
       <c r="C5" s="7" t="s">
@@ -1173,10 +1169,9 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="44">
         <v>2</v>
       </c>
@@ -1206,10 +1201,9 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="45"/>
       <c r="B7" s="47"/>
       <c r="C7" s="7" t="s">
@@ -1235,10 +1229,9 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="44">
         <v>3</v>
       </c>
@@ -1268,10 +1261,9 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="45"/>
       <c r="B9" s="47"/>
       <c r="C9" s="7" t="s">
@@ -1297,10 +1289,9 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="44">
         <v>4</v>
       </c>
@@ -1330,10 +1321,9 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="45"/>
       <c r="B11" s="47"/>
       <c r="C11" s="7" t="s">
@@ -1361,10 +1351,9 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="44">
         <v>5</v>
       </c>
@@ -1392,10 +1381,9 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="45"/>
       <c r="B13" s="47"/>
       <c r="C13" s="7" t="s">
@@ -1406,21 +1394,22 @@
       </c>
       <c r="E13" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="44">
         <v>6</v>
       </c>
@@ -1450,10 +1439,9 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="45"/>
       <c r="B15" s="47"/>
       <c r="C15" s="7" t="s">
@@ -1479,10 +1467,9 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="44">
         <v>7</v>
       </c>
@@ -1508,18 +1495,17 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
       <c r="N16" s="9">
         <v>1</v>
       </c>
-      <c r="O16" s="9">
-        <v>1</v>
-      </c>
-      <c r="P16" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="O16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="45"/>
       <c r="B17" s="47"/>
       <c r="C17" s="7" t="s">
@@ -1541,10 +1527,9 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="44">
         <v>8</v>
       </c>
@@ -1572,10 +1557,9 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="45"/>
       <c r="B19" s="47"/>
       <c r="C19" s="7" t="s">
@@ -1597,10 +1581,9 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="44">
         <v>9</v>
       </c>
@@ -1615,7 +1598,7 @@
       </c>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -1626,14 +1609,11 @@
       <c r="L20" s="31">
         <v>1</v>
       </c>
-      <c r="M20" s="31">
-        <v>1</v>
-      </c>
+      <c r="M20" s="31"/>
       <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="33"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="45"/>
       <c r="B21" s="47"/>
       <c r="C21" s="7" t="s">
@@ -1655,10 +1635,9 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="44">
         <v>10</v>
       </c>
@@ -1681,17 +1660,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9">
-        <v>1</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="N22" s="9"/>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="45"/>
       <c r="B23" s="47"/>
       <c r="C23" s="7" t="s">
@@ -1713,10 +1691,9 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="44">
         <v>11</v>
       </c>
@@ -1740,10 +1717,9 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="45"/>
       <c r="B25" s="47"/>
       <c r="C25" s="7" t="s">
@@ -1765,10 +1741,9 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="44">
         <v>12</v>
       </c>
@@ -1792,10 +1767,9 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="45"/>
       <c r="B27" s="47"/>
       <c r="C27" s="7" t="s">
@@ -1817,10 +1791,9 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="44">
         <v>14</v>
       </c>
@@ -1842,10 +1815,9 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="23"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="45"/>
       <c r="B29" s="47"/>
       <c r="C29" s="7" t="s">
@@ -1865,10 +1837,9 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="44">
         <v>15</v>
       </c>
@@ -1890,10 +1861,9 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="45"/>
       <c r="B31" s="47"/>
       <c r="C31" s="7" t="s">
@@ -1913,10 +1883,9 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="22"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="44">
         <v>16</v>
       </c>
@@ -1938,10 +1907,9 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="45"/>
       <c r="B33" s="47"/>
       <c r="C33" s="7" t="s">
@@ -1961,10 +1929,9 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="O33" s="22"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="44">
         <v>17</v>
       </c>
@@ -1986,10 +1953,9 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="45"/>
       <c r="B35" s="47"/>
       <c r="C35" s="7" t="s">
@@ -2009,10 +1975,9 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="O35" s="22"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="44">
         <v>19</v>
       </c>
@@ -2034,10 +1999,9 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="45"/>
       <c r="B37" s="47"/>
       <c r="C37" s="7" t="s">
@@ -2057,10 +2021,9 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="44">
         <v>20</v>
       </c>
@@ -2082,10 +2045,9 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="23"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="O38" s="23"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="45"/>
       <c r="B39" s="47"/>
       <c r="C39" s="7" t="s">
@@ -2105,10 +2067,9 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="22"/>
-    </row>
-    <row r="40" spans="1:16" ht="18">
+      <c r="O39" s="22"/>
+    </row>
+    <row r="40" spans="1:15" ht="18">
       <c r="C40" s="37" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2079,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18">
+    <row r="41" spans="1:15" ht="18">
       <c r="C41" s="38" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2133,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F38:P38 F36:P36 F34:P34 F32:P32 F30:P30 F28:P28 F26:P26 F24:P24 F20:P20 F18:P18 F16:P16 F14:P14 F12:P12 F10:P10 F8:P8 F6:P6 F22:P22 F4:P4">
+  <conditionalFormatting sqref="F38:O38 F36:O36 F34:O34 F32:O32 F30:O30 F28:O28 F26:O26 F24:O24 F20:O20 F18:O18 F16:O16 F14:O14 F12:O12 F10:O10 F8:O8 F6:O6 F22:O22 F4:O4">
     <cfRule type="beginsWith" dxfId="3" priority="2" operator="beginsWith" text="M">
       <formula>LEFT(F4,LEN("M"))="M"</formula>
     </cfRule>
@@ -2180,7 +2141,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:P39 F37:P37 F35:P35 F33:P33 F31:P31 F29:P29 F27:P27 F25:P25 F21:P21 F19:P19 F17:P17 F15:P15 F13:P13 F11:P11 F9:P9 F7:P7 F5:P5 F23:P23">
+  <conditionalFormatting sqref="F39:O39 F37:O37 F35:O35 F33:O33 F31:O31 F29:O29 F27:O27 F25:O25 F21:O21 F19:O19 F17:O17 F15:O15 F13:O13 F11:O11 F9:O9 F7:O7 F5:O5 F23:O23">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="M">
       <formula>LEFT(F5,LEN("M"))="M"</formula>
     </cfRule>
@@ -2196,7 +2157,7 @@
     <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unterlaubter Wert" error="Nur &quot;1&quot; erlaubt" promptTitle="Beteiligtes Teammitglied" prompt="Erlaubter Wert: 1" sqref="D4:D39">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unerlaubte Eingabe" error="Es sind nur folgende Zeichen erlaubt:_x000a_Arbeitszeit: 1_x000a_Meilensteine: M1, M2,..." promptTitle="Erlaubte Zeichen" prompt="Arbeitszeit: 1_x000a_Meilensteine: M1, M2,..._x000a__x000a_" sqref="F4:P39">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unerlaubte Eingabe" error="Es sind nur folgende Zeichen erlaubt:_x000a_Arbeitszeit: 1_x000a_Meilensteine: M1, M2,..." promptTitle="Erlaubte Zeichen" prompt="Arbeitszeit: 1_x000a_Meilensteine: M1, M2,..._x000a__x000a_" sqref="F4:O39">
       <formula1>OR(F4=1,AND(LEFT(F4,1)="M",ISNUMBER(RIGHT(F4,LEN(F4)-1)+0)))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
+++ b/Projektdokumente und Unterlagen/ZeitplanSB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>soll</t>
   </si>
@@ -652,21 +652,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +665,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,9 +1039,9 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L22" sqref="L22"/>
+      <selection pane="topRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1057,13 +1057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -1073,17 +1073,17 @@
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="27"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="C3" s="36"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="12">
         <v>44256</v>
       </c>
@@ -1116,10 +1116,10 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="44">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1146,8 +1146,8 @@
       <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1172,10 +1172,10 @@
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="44">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1204,8 +1204,8 @@
       <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1232,10 +1232,10 @@
       <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="44">
+      <c r="A8" s="39">
         <v>3</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1264,8 +1264,8 @@
       <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1292,10 +1292,10 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="44">
+      <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1324,8 +1324,8 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1354,10 +1354,10 @@
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="44">
+      <c r="A12" s="39">
         <v>5</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1384,8 +1384,8 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1410,10 +1410,10 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="44">
+      <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1442,8 +1442,8 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1470,10 +1470,10 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="44">
+      <c r="A16" s="39">
         <v>7</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1526,14 +1526,18 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="22"/>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="44">
+      <c r="A18" s="39">
         <v>8</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1560,8 +1564,8 @@
       <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1574,7 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1578,16 +1582,18 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="44">
+      <c r="A20" s="39">
         <v>9</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1614,8 +1620,8 @@
       <c r="O20" s="33"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1630,7 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="8"/>
@@ -1632,16 +1638,20 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="44">
+      <c r="A22" s="39">
         <v>10</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1670,8 +1680,8 @@
       <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="7" t="s">
         <v>1</v>
       </c>
@@ -1680,7 +1690,7 @@
       </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1690,14 +1700,16 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="44">
+      <c r="A24" s="39">
         <v>11</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1732,8 @@
       <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
@@ -1744,10 +1756,10 @@
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="44">
+      <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1770,8 +1782,8 @@
       <c r="O26" s="23"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
@@ -1794,10 +1806,10 @@
       <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="44">
+      <c r="A28" s="39">
         <v>14</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1818,8 +1830,8 @@
       <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1840,10 +1852,10 @@
       <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="44">
+      <c r="A30" s="39">
         <v>15</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
@@ -1864,8 +1876,8 @@
       <c r="O30" s="23"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1886,10 +1898,10 @@
       <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="44">
+      <c r="A32" s="39">
         <v>16</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1910,8 +1922,8 @@
       <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="7" t="s">
         <v>1</v>
       </c>
@@ -1932,10 +1944,10 @@
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="44">
+      <c r="A34" s="39">
         <v>17</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1956,8 +1968,8 @@
       <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="7" t="s">
         <v>1</v>
       </c>
@@ -1978,10 +1990,10 @@
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="44">
+      <c r="A36" s="39">
         <v>19</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>0</v>
       </c>
@@ -2002,8 +2014,8 @@
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
@@ -2024,10 +2036,10 @@
       <c r="O37" s="22"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="44">
+      <c r="A38" s="39">
         <v>20</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6" t="s">
         <v>0</v>
       </c>
@@ -2048,8 +2060,8 @@
       <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2093,12 +2105,31 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="39">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
@@ -2107,31 +2138,12 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <conditionalFormatting sqref="F38:O38 F36:O36 F34:O34 F32:O32 F30:O30 F28:O28 F26:O26 F24:O24 F20:O20 F18:O18 F16:O16 F14:O14 F12:O12 F10:O10 F8:O8 F6:O6 F22:O22 F4:O4">
     <cfRule type="beginsWith" dxfId="3" priority="2" operator="beginsWith" text="M">
